--- a/Code/Results/Cases/Case_1_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002094930753186</v>
+        <v>1.0296877408691</v>
       </c>
       <c r="D2">
-        <v>1.039174897847268</v>
+        <v>1.048562058525631</v>
       </c>
       <c r="E2">
-        <v>1.008244952182846</v>
+        <v>1.029488945739532</v>
       </c>
       <c r="F2">
-        <v>1.039077368160946</v>
+        <v>1.054722942665752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049154356405608</v>
+        <v>1.040465465200532</v>
       </c>
       <c r="J2">
-        <v>1.024213162840623</v>
+        <v>1.034833134630684</v>
       </c>
       <c r="K2">
-        <v>1.050114164973966</v>
+        <v>1.051321557922628</v>
       </c>
       <c r="L2">
-        <v>1.019590604471134</v>
+        <v>1.032302709353689</v>
       </c>
       <c r="M2">
-        <v>1.050017869243079</v>
+        <v>1.057465368533453</v>
       </c>
       <c r="N2">
-        <v>1.025667663010749</v>
+        <v>1.036302716378879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006088285490302</v>
+        <v>1.030542318384428</v>
       </c>
       <c r="D3">
-        <v>1.041825554412623</v>
+        <v>1.049148923898365</v>
       </c>
       <c r="E3">
-        <v>1.011398688944835</v>
+        <v>1.030212570071572</v>
       </c>
       <c r="F3">
-        <v>1.042330978594028</v>
+        <v>1.055466030677948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050193500490697</v>
+        <v>1.040644306336934</v>
       </c>
       <c r="J3">
-        <v>1.026414342580561</v>
+        <v>1.035329334738318</v>
       </c>
       <c r="K3">
-        <v>1.051949841264366</v>
+        <v>1.051721076403784</v>
       </c>
       <c r="L3">
-        <v>1.021887769659819</v>
+        <v>1.032834717319635</v>
       </c>
       <c r="M3">
-        <v>1.052449428040548</v>
+        <v>1.058021935620201</v>
       </c>
       <c r="N3">
-        <v>1.027871968678396</v>
+        <v>1.036799621147581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008625200038785</v>
+        <v>1.031095998679723</v>
       </c>
       <c r="D4">
-        <v>1.043513554180849</v>
+        <v>1.049529206289801</v>
       </c>
       <c r="E4">
-        <v>1.013408129848313</v>
+        <v>1.030681795685327</v>
       </c>
       <c r="F4">
-        <v>1.044403980189569</v>
+        <v>1.055947777522388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050846191584736</v>
+        <v>1.040759198702706</v>
       </c>
       <c r="J4">
-        <v>1.02781081638587</v>
+        <v>1.035650473993817</v>
       </c>
       <c r="K4">
-        <v>1.053113710794845</v>
+        <v>1.051979431694966</v>
       </c>
       <c r="L4">
-        <v>1.023347379753943</v>
+        <v>1.033179284395125</v>
       </c>
       <c r="M4">
-        <v>1.053994472748584</v>
+        <v>1.058382321403789</v>
       </c>
       <c r="N4">
-        <v>1.029270425636686</v>
+        <v>1.037121216457658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00968080900531</v>
+        <v>1.031328934614357</v>
       </c>
       <c r="D5">
-        <v>1.044216844823877</v>
+        <v>1.049689204654618</v>
       </c>
       <c r="E5">
-        <v>1.014245640954504</v>
+        <v>1.030879293884515</v>
       </c>
       <c r="F5">
-        <v>1.045267944137998</v>
+        <v>1.056150521844692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051115948949147</v>
+        <v>1.040807300037079</v>
       </c>
       <c r="J5">
-        <v>1.028391403809513</v>
+        <v>1.035785495128956</v>
       </c>
       <c r="K5">
-        <v>1.053597392997866</v>
+        <v>1.05208800459538</v>
       </c>
       <c r="L5">
-        <v>1.023954753963966</v>
+        <v>1.033324216189042</v>
       </c>
       <c r="M5">
-        <v>1.05463738787682</v>
+        <v>1.058533885654254</v>
       </c>
       <c r="N5">
-        <v>1.029851837561066</v>
+        <v>1.037256429338296</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009857420661713</v>
+        <v>1.031368055431349</v>
       </c>
       <c r="D6">
-        <v>1.044334562795854</v>
+        <v>1.049716076513233</v>
       </c>
       <c r="E6">
-        <v>1.014385843397089</v>
+        <v>1.030912468473299</v>
       </c>
       <c r="F6">
-        <v>1.045412572040004</v>
+        <v>1.056184576227697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05116097301623</v>
+        <v>1.040815364746895</v>
       </c>
       <c r="J6">
-        <v>1.028488511328068</v>
+        <v>1.035808166566857</v>
       </c>
       <c r="K6">
-        <v>1.053678279928066</v>
+        <v>1.052106232096806</v>
       </c>
       <c r="L6">
-        <v>1.024056373382918</v>
+        <v>1.033348555279667</v>
       </c>
       <c r="M6">
-        <v>1.054744952452198</v>
+        <v>1.058559337314376</v>
       </c>
       <c r="N6">
-        <v>1.029949082983435</v>
+        <v>1.03727913297224</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008639347546662</v>
+        <v>1.031099110520046</v>
       </c>
       <c r="D7">
-        <v>1.043522976311203</v>
+        <v>1.049531343696647</v>
       </c>
       <c r="E7">
-        <v>1.013419348944729</v>
+        <v>1.030684433741857</v>
       </c>
       <c r="F7">
-        <v>1.044415553820222</v>
+        <v>1.055950485748213</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050849814195785</v>
+        <v>1.040759842219605</v>
       </c>
       <c r="J7">
-        <v>1.027818599499628</v>
+        <v>1.035652278098666</v>
       </c>
       <c r="K7">
-        <v>1.053120195659444</v>
+        <v>1.051980882608972</v>
       </c>
       <c r="L7">
-        <v>1.023355519836191</v>
+        <v>1.033181220684751</v>
       </c>
       <c r="M7">
-        <v>1.054003089219713</v>
+        <v>1.058384346386698</v>
       </c>
       <c r="N7">
-        <v>1.029278219803359</v>
+        <v>1.037123023124542</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003454464814736</v>
+        <v>1.029976401060319</v>
       </c>
       <c r="D8">
-        <v>1.040076417477869</v>
+        <v>1.048760279196969</v>
       </c>
       <c r="E8">
-        <v>1.009317375904485</v>
+        <v>1.029733291427599</v>
       </c>
       <c r="F8">
-        <v>1.040183756719914</v>
+        <v>1.05497388114037</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049509671333809</v>
+        <v>1.040526076760778</v>
       </c>
       <c r="J8">
-        <v>1.024962932759992</v>
+        <v>1.035000813636594</v>
       </c>
       <c r="K8">
-        <v>1.05073957131779</v>
+        <v>1.051456609334037</v>
       </c>
       <c r="L8">
-        <v>1.020372599365392</v>
+        <v>1.032482436365715</v>
       </c>
       <c r="M8">
-        <v>1.05084559288151</v>
+        <v>1.057653410268836</v>
       </c>
       <c r="N8">
-        <v>1.026418497689402</v>
+        <v>1.036470633508211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.993940938388546</v>
+        <v>1.028003563477567</v>
       </c>
       <c r="D9">
-        <v>1.033787879698843</v>
+        <v>1.047405795643958</v>
       </c>
       <c r="E9">
-        <v>1.001839566955721</v>
+        <v>1.028064936607431</v>
       </c>
       <c r="F9">
-        <v>1.032469678446056</v>
+        <v>1.053260112504269</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046993323607056</v>
+        <v>1.040107830418167</v>
       </c>
       <c r="J9">
-        <v>1.019709487124704</v>
+        <v>1.033853401221567</v>
       </c>
       <c r="K9">
-        <v>1.04635556581335</v>
+        <v>1.050531609720553</v>
       </c>
       <c r="L9">
-        <v>1.01490286880972</v>
+        <v>1.03125361873439</v>
       </c>
       <c r="M9">
-        <v>1.045057041939977</v>
+        <v>1.056367394839282</v>
       </c>
       <c r="N9">
-        <v>1.021157591558734</v>
+        <v>1.035321591635944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9873203821625249</v>
+        <v>1.026692144849693</v>
       </c>
       <c r="D10">
-        <v>1.029440097514495</v>
+        <v>1.046505766371479</v>
       </c>
       <c r="E10">
-        <v>0.9966713201935491</v>
+        <v>1.026957971013343</v>
       </c>
       <c r="F10">
-        <v>1.027139866634739</v>
+        <v>1.052122522513225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045205859331032</v>
+        <v>1.039824794554424</v>
       </c>
       <c r="J10">
-        <v>1.016046261597061</v>
+        <v>1.033088906278793</v>
       </c>
       <c r="K10">
-        <v>1.043297396579681</v>
+        <v>1.049914244285119</v>
       </c>
       <c r="L10">
-        <v>1.011100936198303</v>
+        <v>1.030436189844783</v>
       </c>
       <c r="M10">
-        <v>1.04103580286609</v>
+        <v>1.055511489210072</v>
       </c>
       <c r="N10">
-        <v>1.017489163830664</v>
+        <v>1.034556011022663</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9843817265312627</v>
+        <v>1.026125208941538</v>
       </c>
       <c r="D11">
-        <v>1.027518065099535</v>
+        <v>1.046116770238265</v>
       </c>
       <c r="E11">
-        <v>0.9943863802444085</v>
+        <v>1.026479915679503</v>
       </c>
       <c r="F11">
-        <v>1.024784255623781</v>
+        <v>1.051631127794532</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044404419881571</v>
+        <v>1.039701249134659</v>
       </c>
       <c r="J11">
-        <v>1.014418994027226</v>
+        <v>1.032757993522537</v>
       </c>
       <c r="K11">
-        <v>1.041939042818995</v>
+        <v>1.049646770012971</v>
       </c>
       <c r="L11">
-        <v>1.00941494341164</v>
+        <v>1.03008267432479</v>
       </c>
       <c r="M11">
-        <v>1.039253438469566</v>
+        <v>1.055141235251163</v>
       </c>
       <c r="N11">
-        <v>1.015859585354229</v>
+        <v>1.034224628332337</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9832788384043052</v>
+        <v>1.025914763076489</v>
       </c>
       <c r="D12">
-        <v>1.026797986653535</v>
+        <v>1.045972390292208</v>
       </c>
       <c r="E12">
-        <v>0.9935302544511229</v>
+        <v>1.026302537009608</v>
       </c>
       <c r="F12">
-        <v>1.023901796055759</v>
+        <v>1.051448782769731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044102479124737</v>
+        <v>1.039655211038931</v>
       </c>
       <c r="J12">
-        <v>1.013808122724525</v>
+        <v>1.032635096900413</v>
       </c>
       <c r="K12">
-        <v>1.041429179024603</v>
+        <v>1.049547396900192</v>
       </c>
       <c r="L12">
-        <v>1.008782463181979</v>
+        <v>1.029951429913476</v>
       </c>
       <c r="M12">
-        <v>1.038584968017074</v>
+        <v>1.055003762103234</v>
       </c>
       <c r="N12">
-        <v>1.015247846544211</v>
+        <v>1.034101557182912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9835159338166135</v>
+        <v>1.025959898096159</v>
       </c>
       <c r="D13">
-        <v>1.026952728030097</v>
+        <v>1.046003355246716</v>
       </c>
       <c r="E13">
-        <v>0.9937142365573717</v>
+        <v>1.026340576601704</v>
       </c>
       <c r="F13">
-        <v>1.02409143021557</v>
+        <v>1.051487888177564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04416744088064</v>
+        <v>1.039665093043906</v>
       </c>
       <c r="J13">
-        <v>1.013939452115</v>
+        <v>1.032661457757559</v>
       </c>
       <c r="K13">
-        <v>1.041538789871662</v>
+        <v>1.049568713709404</v>
       </c>
       <c r="L13">
-        <v>1.008918418457443</v>
+        <v>1.029979579231147</v>
       </c>
       <c r="M13">
-        <v>1.038728651759151</v>
+        <v>1.055033248013434</v>
       </c>
       <c r="N13">
-        <v>1.015379362437485</v>
+        <v>1.034127955475499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9842907960180952</v>
+        <v>1.026107810568206</v>
       </c>
       <c r="D14">
-        <v>1.027458670013216</v>
+        <v>1.046104833480433</v>
       </c>
       <c r="E14">
-        <v>0.9943157654847468</v>
+        <v>1.026465249568387</v>
       </c>
       <c r="F14">
-        <v>1.024711465662598</v>
+        <v>1.051616051395947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044379548824041</v>
+        <v>1.039697446622487</v>
       </c>
       <c r="J14">
-        <v>1.014368631987576</v>
+        <v>1.032747834452117</v>
       </c>
       <c r="K14">
-        <v>1.041897006735407</v>
+        <v>1.049638556225924</v>
       </c>
       <c r="L14">
-        <v>1.009362790983159</v>
+        <v>1.030071824246066</v>
       </c>
       <c r="M14">
-        <v>1.03919831491283</v>
+        <v>1.055129870532359</v>
       </c>
       <c r="N14">
-        <v>1.015809151794707</v>
+        <v>1.034214454834872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9847666948509091</v>
+        <v>1.026198962840418</v>
       </c>
       <c r="D15">
-        <v>1.02776957558978</v>
+        <v>1.046167372276319</v>
       </c>
       <c r="E15">
-        <v>0.9946853969666419</v>
+        <v>1.026542090243713</v>
       </c>
       <c r="F15">
-        <v>1.025092489316655</v>
+        <v>1.051695041014691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044509668423561</v>
+        <v>1.039717361164545</v>
       </c>
       <c r="J15">
-        <v>1.014632203519852</v>
+        <v>1.032801056555249</v>
       </c>
       <c r="K15">
-        <v>1.042117006674512</v>
+        <v>1.049681585730954</v>
       </c>
       <c r="L15">
-        <v>1.009635750385989</v>
+        <v>1.030128668363376</v>
       </c>
       <c r="M15">
-        <v>1.039486831644701</v>
+        <v>1.055189410282702</v>
       </c>
       <c r="N15">
-        <v>1.01607309762879</v>
+        <v>1.034267752519495</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9875138508959369</v>
+        <v>1.026729789975906</v>
       </c>
       <c r="D16">
-        <v>1.029566806835694</v>
+        <v>1.046531598155801</v>
       </c>
       <c r="E16">
-        <v>0.9968219451722019</v>
+        <v>1.026989724846449</v>
       </c>
       <c r="F16">
-        <v>1.0272951687762</v>
+        <v>1.052155160004795</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045258459214871</v>
+        <v>1.039832973084612</v>
       </c>
       <c r="J16">
-        <v>1.016153370754372</v>
+        <v>1.033110870477541</v>
       </c>
       <c r="K16">
-        <v>1.043386811428543</v>
+        <v>1.049931992612412</v>
       </c>
       <c r="L16">
-        <v>1.011211971192531</v>
+        <v>1.030459660823506</v>
       </c>
       <c r="M16">
-        <v>1.041153205538369</v>
+        <v>1.055536069455262</v>
       </c>
       <c r="N16">
-        <v>1.017596425095264</v>
+        <v>1.034578006413092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9892174478255401</v>
+        <v>1.027063010454328</v>
       </c>
       <c r="D17">
-        <v>1.030683452684388</v>
+        <v>1.046760262264402</v>
       </c>
       <c r="E17">
-        <v>0.9981493217502337</v>
+        <v>1.027270855014045</v>
       </c>
       <c r="F17">
-        <v>1.028663853008902</v>
+        <v>1.05244410042879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045720718838757</v>
+        <v>1.039905229136641</v>
       </c>
       <c r="J17">
-        <v>1.017096383949284</v>
+        <v>1.033305241229458</v>
       </c>
       <c r="K17">
-        <v>1.044174060030491</v>
+        <v>1.050089026820187</v>
       </c>
       <c r="L17">
-        <v>1.012189878057688</v>
+        <v>1.030667401524158</v>
       </c>
       <c r="M17">
-        <v>1.042187297852463</v>
+        <v>1.05575361689838</v>
       </c>
       <c r="N17">
-        <v>1.018540777477078</v>
+        <v>1.034772653193772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9902042266403516</v>
+        <v>1.027257460692316</v>
       </c>
       <c r="D18">
-        <v>1.031330986487672</v>
+        <v>1.046893707745757</v>
       </c>
       <c r="E18">
-        <v>0.9989190410254317</v>
+        <v>1.027434955710961</v>
       </c>
       <c r="F18">
-        <v>1.02945759589828</v>
+        <v>1.052612749089301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045987706840691</v>
+        <v>1.039947279391645</v>
       </c>
       <c r="J18">
-        <v>1.017642483724894</v>
+        <v>1.033418625756992</v>
       </c>
       <c r="K18">
-        <v>1.044629966909476</v>
+        <v>1.050180607555594</v>
       </c>
       <c r="L18">
-        <v>1.012756459352327</v>
+        <v>1.030788615190153</v>
       </c>
       <c r="M18">
-        <v>1.042786513743641</v>
+        <v>1.055880543145745</v>
       </c>
       <c r="N18">
-        <v>1.019087652777008</v>
+        <v>1.03488619874034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9905395380490796</v>
+        <v>1.027323778138892</v>
       </c>
       <c r="D19">
-        <v>1.031551143210571</v>
+        <v>1.046939220946868</v>
       </c>
       <c r="E19">
-        <v>0.9991807388946157</v>
+        <v>1.027490930483213</v>
       </c>
       <c r="F19">
-        <v>1.029727472569935</v>
+        <v>1.052670273295964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046078298718482</v>
+        <v>1.039961601224049</v>
       </c>
       <c r="J19">
-        <v>1.017828028388655</v>
+        <v>1.033457288837736</v>
       </c>
       <c r="K19">
-        <v>1.044784868027235</v>
+        <v>1.05021183168964</v>
       </c>
       <c r="L19">
-        <v>1.012949009402129</v>
+        <v>1.030829953004196</v>
       </c>
       <c r="M19">
-        <v>1.042990167508523</v>
+        <v>1.055923827515362</v>
       </c>
       <c r="N19">
-        <v>1.019273460935473</v>
+        <v>1.034924916727094</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.989035385519673</v>
+        <v>1.027027249898408</v>
       </c>
       <c r="D20">
-        <v>1.030564040455625</v>
+        <v>1.046735721558709</v>
       </c>
       <c r="E20">
-        <v>0.9980073763335964</v>
+        <v>1.027240679751825</v>
       </c>
       <c r="F20">
-        <v>1.02851748279459</v>
+        <v>1.052413087986489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045671396730646</v>
+        <v>1.039897486616283</v>
       </c>
       <c r="J20">
-        <v>1.01699561733451</v>
+        <v>1.033284385903319</v>
       </c>
       <c r="K20">
-        <v>1.0440899364437</v>
+        <v>1.05007218004207</v>
       </c>
       <c r="L20">
-        <v>1.012085354353119</v>
+        <v>1.030645108555546</v>
       </c>
       <c r="M20">
-        <v>1.042076760068498</v>
+        <v>1.05573027253502</v>
       </c>
       <c r="N20">
-        <v>1.018439867762153</v>
+        <v>1.034751768250677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9840629359437749</v>
+        <v>1.026064250171506</v>
       </c>
       <c r="D21">
-        <v>1.027309854376766</v>
+        <v>1.046074947602511</v>
       </c>
       <c r="E21">
-        <v>0.9941388371389897</v>
+        <v>1.026428531161963</v>
       </c>
       <c r="F21">
-        <v>1.024529089708995</v>
+        <v>1.051578305512587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044317206699791</v>
+        <v>1.039687923374568</v>
       </c>
       <c r="J21">
-        <v>1.014242428938725</v>
+        <v>1.032722398130566</v>
       </c>
       <c r="K21">
-        <v>1.041791668900335</v>
+        <v>1.049617989921024</v>
       </c>
       <c r="L21">
-        <v>1.009232108408353</v>
+        <v>1.03004465852773</v>
       </c>
       <c r="M21">
-        <v>1.039060190063523</v>
+        <v>1.055101416058326</v>
       </c>
       <c r="N21">
-        <v>1.01568276952305</v>
+        <v>1.034188982390826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9808706563479747</v>
+        <v>1.025459581194155</v>
       </c>
       <c r="D22">
-        <v>1.025228114141239</v>
+        <v>1.045660133311773</v>
       </c>
       <c r="E22">
-        <v>0.9916635579731362</v>
+        <v>1.025919014998799</v>
       </c>
       <c r="F22">
-        <v>1.021977984558261</v>
+        <v>1.05105449207652</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043441114291641</v>
+        <v>1.039555307750547</v>
       </c>
       <c r="J22">
-        <v>1.012474037311247</v>
+        <v>1.032369165313628</v>
       </c>
       <c r="K22">
-        <v>1.040315833835076</v>
+        <v>1.049332300271029</v>
       </c>
       <c r="L22">
-        <v>1.007401990314739</v>
+        <v>1.029667520058322</v>
       </c>
       <c r="M22">
-        <v>1.037126274513343</v>
+        <v>1.054706351916227</v>
       </c>
       <c r="N22">
-        <v>1.013911866576624</v>
+        <v>1.033835247942772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9825693789322119</v>
+        <v>1.025780050612574</v>
       </c>
       <c r="D23">
-        <v>1.026335147892148</v>
+        <v>1.045879972837344</v>
       </c>
       <c r="E23">
-        <v>0.9929799382572743</v>
+        <v>1.026189012955112</v>
       </c>
       <c r="F23">
-        <v>1.023334597595069</v>
+        <v>1.051332075477311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043907928720388</v>
+        <v>1.039625690580956</v>
       </c>
       <c r="J23">
-        <v>1.013415127322836</v>
+        <v>1.032556409741335</v>
       </c>
       <c r="K23">
-        <v>1.041101186545667</v>
+        <v>1.049483760877572</v>
       </c>
       <c r="L23">
-        <v>1.008375689205023</v>
+        <v>1.029867411022906</v>
       </c>
       <c r="M23">
-        <v>1.03815509690001</v>
+        <v>1.054915751703785</v>
       </c>
       <c r="N23">
-        <v>1.014854293043975</v>
+        <v>1.034022758279044</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9891176729246514</v>
+        <v>1.027043408281474</v>
       </c>
       <c r="D24">
-        <v>1.030618009388237</v>
+        <v>1.046746810232561</v>
       </c>
       <c r="E24">
-        <v>0.9980715292931047</v>
+        <v>1.027254314276526</v>
       </c>
       <c r="F24">
-        <v>1.028583635349244</v>
+        <v>1.052427100820448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045693691418319</v>
+        <v>1.039900985423067</v>
       </c>
       <c r="J24">
-        <v>1.017041161599258</v>
+        <v>1.033293809492566</v>
       </c>
       <c r="K24">
-        <v>1.044127958400847</v>
+        <v>1.050079792421428</v>
       </c>
       <c r="L24">
-        <v>1.012132595887834</v>
+        <v>1.030655181658785</v>
       </c>
       <c r="M24">
-        <v>1.04212671953298</v>
+        <v>1.055740820741593</v>
       </c>
       <c r="N24">
-        <v>1.01848547670498</v>
+        <v>1.034761205222502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9964475550751747</v>
+        <v>1.028512925354234</v>
       </c>
       <c r="D25">
-        <v>1.035440195246282</v>
+        <v>1.04775544886148</v>
       </c>
       <c r="E25">
-        <v>1.003803857037715</v>
+        <v>1.028495325159521</v>
       </c>
       <c r="F25">
-        <v>1.034495842253132</v>
+        <v>1.053702304401517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04766278631111</v>
+        <v>1.040216701608164</v>
       </c>
       <c r="J25">
-        <v>1.021095067474298</v>
+        <v>1.034149961678412</v>
       </c>
       <c r="K25">
-        <v>1.04751217642285</v>
+        <v>1.050770873572829</v>
       </c>
       <c r="L25">
-        <v>1.016343408627277</v>
+        <v>1.031570989314725</v>
       </c>
       <c r="M25">
-        <v>1.046581256540049</v>
+        <v>1.05669961464451</v>
       </c>
       <c r="N25">
-        <v>1.022545139591353</v>
+        <v>1.035618573242654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0296877408691</v>
+        <v>1.002094930753186</v>
       </c>
       <c r="D2">
-        <v>1.048562058525631</v>
+        <v>1.039174897847268</v>
       </c>
       <c r="E2">
-        <v>1.029488945739532</v>
+        <v>1.008244952182845</v>
       </c>
       <c r="F2">
-        <v>1.054722942665752</v>
+        <v>1.039077368160946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040465465200532</v>
+        <v>1.049154356405609</v>
       </c>
       <c r="J2">
-        <v>1.034833134630684</v>
+        <v>1.024213162840623</v>
       </c>
       <c r="K2">
-        <v>1.051321557922628</v>
+        <v>1.050114164973967</v>
       </c>
       <c r="L2">
-        <v>1.032302709353689</v>
+        <v>1.019590604471134</v>
       </c>
       <c r="M2">
-        <v>1.057465368533453</v>
+        <v>1.05001786924308</v>
       </c>
       <c r="N2">
-        <v>1.036302716378879</v>
+        <v>1.025667663010749</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030542318384428</v>
+        <v>1.006088285490301</v>
       </c>
       <c r="D3">
-        <v>1.049148923898365</v>
+        <v>1.041825554412623</v>
       </c>
       <c r="E3">
-        <v>1.030212570071572</v>
+        <v>1.011398688944834</v>
       </c>
       <c r="F3">
-        <v>1.055466030677948</v>
+        <v>1.042330978594028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040644306336934</v>
+        <v>1.050193500490697</v>
       </c>
       <c r="J3">
-        <v>1.035329334738318</v>
+        <v>1.02641434258056</v>
       </c>
       <c r="K3">
-        <v>1.051721076403784</v>
+        <v>1.051949841264366</v>
       </c>
       <c r="L3">
-        <v>1.032834717319635</v>
+        <v>1.021887769659819</v>
       </c>
       <c r="M3">
-        <v>1.058021935620201</v>
+        <v>1.052449428040548</v>
       </c>
       <c r="N3">
-        <v>1.036799621147581</v>
+        <v>1.027871968678395</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031095998679723</v>
+        <v>1.008625200038785</v>
       </c>
       <c r="D4">
-        <v>1.049529206289801</v>
+        <v>1.043513554180849</v>
       </c>
       <c r="E4">
-        <v>1.030681795685327</v>
+        <v>1.013408129848312</v>
       </c>
       <c r="F4">
-        <v>1.055947777522388</v>
+        <v>1.044403980189568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040759198702706</v>
+        <v>1.050846191584736</v>
       </c>
       <c r="J4">
-        <v>1.035650473993817</v>
+        <v>1.02781081638587</v>
       </c>
       <c r="K4">
-        <v>1.051979431694966</v>
+        <v>1.053113710794845</v>
       </c>
       <c r="L4">
-        <v>1.033179284395125</v>
+        <v>1.023347379753943</v>
       </c>
       <c r="M4">
-        <v>1.058382321403789</v>
+        <v>1.053994472748584</v>
       </c>
       <c r="N4">
-        <v>1.037121216457658</v>
+        <v>1.029270425636686</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031328934614357</v>
+        <v>1.009680809005311</v>
       </c>
       <c r="D5">
-        <v>1.049689204654618</v>
+        <v>1.044216844823877</v>
       </c>
       <c r="E5">
-        <v>1.030879293884515</v>
+        <v>1.014245640954504</v>
       </c>
       <c r="F5">
-        <v>1.056150521844692</v>
+        <v>1.045267944137997</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040807300037079</v>
+        <v>1.051115948949147</v>
       </c>
       <c r="J5">
-        <v>1.035785495128956</v>
+        <v>1.028391403809513</v>
       </c>
       <c r="K5">
-        <v>1.05208800459538</v>
+        <v>1.053597392997866</v>
       </c>
       <c r="L5">
-        <v>1.033324216189042</v>
+        <v>1.023954753963966</v>
       </c>
       <c r="M5">
-        <v>1.058533885654254</v>
+        <v>1.05463738787682</v>
       </c>
       <c r="N5">
-        <v>1.037256429338296</v>
+        <v>1.029851837561066</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031368055431349</v>
+        <v>1.009857420661713</v>
       </c>
       <c r="D6">
-        <v>1.049716076513233</v>
+        <v>1.044334562795854</v>
       </c>
       <c r="E6">
-        <v>1.030912468473299</v>
+        <v>1.014385843397089</v>
       </c>
       <c r="F6">
-        <v>1.056184576227697</v>
+        <v>1.045412572040004</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040815364746895</v>
+        <v>1.05116097301623</v>
       </c>
       <c r="J6">
-        <v>1.035808166566857</v>
+        <v>1.028488511328068</v>
       </c>
       <c r="K6">
-        <v>1.052106232096806</v>
+        <v>1.053678279928066</v>
       </c>
       <c r="L6">
-        <v>1.033348555279667</v>
+        <v>1.024056373382917</v>
       </c>
       <c r="M6">
-        <v>1.058559337314376</v>
+        <v>1.054744952452198</v>
       </c>
       <c r="N6">
-        <v>1.03727913297224</v>
+        <v>1.029949082983435</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031099110520046</v>
+        <v>1.00863934754666</v>
       </c>
       <c r="D7">
-        <v>1.049531343696647</v>
+        <v>1.043522976311202</v>
       </c>
       <c r="E7">
-        <v>1.030684433741857</v>
+        <v>1.013419348944729</v>
       </c>
       <c r="F7">
-        <v>1.055950485748213</v>
+        <v>1.044415553820222</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040759842219605</v>
+        <v>1.050849814195784</v>
       </c>
       <c r="J7">
-        <v>1.035652278098666</v>
+        <v>1.027818599499627</v>
       </c>
       <c r="K7">
-        <v>1.051980882608972</v>
+        <v>1.053120195659444</v>
       </c>
       <c r="L7">
-        <v>1.033181220684751</v>
+        <v>1.02335551983619</v>
       </c>
       <c r="M7">
-        <v>1.058384346386698</v>
+        <v>1.054003089219712</v>
       </c>
       <c r="N7">
-        <v>1.037123023124542</v>
+        <v>1.029278219803358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029976401060319</v>
+        <v>1.003454464814734</v>
       </c>
       <c r="D8">
-        <v>1.048760279196969</v>
+        <v>1.040076417477868</v>
       </c>
       <c r="E8">
-        <v>1.029733291427599</v>
+        <v>1.009317375904483</v>
       </c>
       <c r="F8">
-        <v>1.05497388114037</v>
+        <v>1.040183756719913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040526076760778</v>
+        <v>1.049509671333808</v>
       </c>
       <c r="J8">
-        <v>1.035000813636594</v>
+        <v>1.02496293275999</v>
       </c>
       <c r="K8">
-        <v>1.051456609334037</v>
+        <v>1.05073957131779</v>
       </c>
       <c r="L8">
-        <v>1.032482436365715</v>
+        <v>1.02037259936539</v>
       </c>
       <c r="M8">
-        <v>1.057653410268836</v>
+        <v>1.050845592881509</v>
       </c>
       <c r="N8">
-        <v>1.036470633508211</v>
+        <v>1.026418497689401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028003563477567</v>
+        <v>0.9939409383885446</v>
       </c>
       <c r="D9">
-        <v>1.047405795643958</v>
+        <v>1.033787879698842</v>
       </c>
       <c r="E9">
-        <v>1.028064936607431</v>
+        <v>1.001839566955719</v>
       </c>
       <c r="F9">
-        <v>1.053260112504269</v>
+        <v>1.032469678446056</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040107830418167</v>
+        <v>1.046993323607055</v>
       </c>
       <c r="J9">
-        <v>1.033853401221567</v>
+        <v>1.019709487124703</v>
       </c>
       <c r="K9">
-        <v>1.050531609720553</v>
+        <v>1.04635556581335</v>
       </c>
       <c r="L9">
-        <v>1.03125361873439</v>
+        <v>1.014902868809719</v>
       </c>
       <c r="M9">
-        <v>1.056367394839282</v>
+        <v>1.045057041939977</v>
       </c>
       <c r="N9">
-        <v>1.035321591635944</v>
+        <v>1.021157591558733</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026692144849693</v>
+        <v>0.9873203821625248</v>
       </c>
       <c r="D10">
-        <v>1.046505766371479</v>
+        <v>1.029440097514495</v>
       </c>
       <c r="E10">
-        <v>1.026957971013343</v>
+        <v>0.9966713201935491</v>
       </c>
       <c r="F10">
-        <v>1.052122522513225</v>
+        <v>1.027139866634739</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039824794554424</v>
+        <v>1.045205859331032</v>
       </c>
       <c r="J10">
-        <v>1.033088906278793</v>
+        <v>1.016046261597061</v>
       </c>
       <c r="K10">
-        <v>1.049914244285119</v>
+        <v>1.04329739657968</v>
       </c>
       <c r="L10">
-        <v>1.030436189844783</v>
+        <v>1.011100936198303</v>
       </c>
       <c r="M10">
-        <v>1.055511489210072</v>
+        <v>1.04103580286609</v>
       </c>
       <c r="N10">
-        <v>1.034556011022663</v>
+        <v>1.017489163830664</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026125208941538</v>
+        <v>0.9843817265312628</v>
       </c>
       <c r="D11">
-        <v>1.046116770238265</v>
+        <v>1.027518065099535</v>
       </c>
       <c r="E11">
-        <v>1.026479915679503</v>
+        <v>0.9943863802444088</v>
       </c>
       <c r="F11">
-        <v>1.051631127794532</v>
+        <v>1.024784255623781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039701249134659</v>
+        <v>1.044404419881572</v>
       </c>
       <c r="J11">
-        <v>1.032757993522537</v>
+        <v>1.014418994027226</v>
       </c>
       <c r="K11">
-        <v>1.049646770012971</v>
+        <v>1.041939042818995</v>
       </c>
       <c r="L11">
-        <v>1.03008267432479</v>
+        <v>1.00941494341164</v>
       </c>
       <c r="M11">
-        <v>1.055141235251163</v>
+        <v>1.039253438469566</v>
       </c>
       <c r="N11">
-        <v>1.034224628332337</v>
+        <v>1.01585958535423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025914763076489</v>
+        <v>0.9832788384043049</v>
       </c>
       <c r="D12">
-        <v>1.045972390292208</v>
+        <v>1.026797986653535</v>
       </c>
       <c r="E12">
-        <v>1.026302537009608</v>
+        <v>0.9935302544511223</v>
       </c>
       <c r="F12">
-        <v>1.051448782769731</v>
+        <v>1.023901796055759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039655211038931</v>
+        <v>1.044102479124737</v>
       </c>
       <c r="J12">
-        <v>1.032635096900413</v>
+        <v>1.013808122724524</v>
       </c>
       <c r="K12">
-        <v>1.049547396900192</v>
+        <v>1.041429179024603</v>
       </c>
       <c r="L12">
-        <v>1.029951429913476</v>
+        <v>1.008782463181978</v>
       </c>
       <c r="M12">
-        <v>1.055003762103234</v>
+        <v>1.038584968017074</v>
       </c>
       <c r="N12">
-        <v>1.034101557182912</v>
+        <v>1.015247846544211</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025959898096159</v>
+        <v>0.983515933816614</v>
       </c>
       <c r="D13">
-        <v>1.046003355246716</v>
+        <v>1.026952728030097</v>
       </c>
       <c r="E13">
-        <v>1.026340576601704</v>
+        <v>0.9937142365573718</v>
       </c>
       <c r="F13">
-        <v>1.051487888177564</v>
+        <v>1.02409143021557</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039665093043906</v>
+        <v>1.04416744088064</v>
       </c>
       <c r="J13">
-        <v>1.032661457757559</v>
+        <v>1.013939452115001</v>
       </c>
       <c r="K13">
-        <v>1.049568713709404</v>
+        <v>1.041538789871662</v>
       </c>
       <c r="L13">
-        <v>1.029979579231147</v>
+        <v>1.008918418457443</v>
       </c>
       <c r="M13">
-        <v>1.055033248013434</v>
+        <v>1.038728651759152</v>
       </c>
       <c r="N13">
-        <v>1.034127955475499</v>
+        <v>1.015379362437485</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026107810568206</v>
+        <v>0.9842907960180941</v>
       </c>
       <c r="D14">
-        <v>1.046104833480433</v>
+        <v>1.027458670013216</v>
       </c>
       <c r="E14">
-        <v>1.026465249568387</v>
+        <v>0.9943157654847454</v>
       </c>
       <c r="F14">
-        <v>1.051616051395947</v>
+        <v>1.024711465662596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039697446622487</v>
+        <v>1.044379548824041</v>
       </c>
       <c r="J14">
-        <v>1.032747834452117</v>
+        <v>1.014368631987575</v>
       </c>
       <c r="K14">
-        <v>1.049638556225924</v>
+        <v>1.041897006735406</v>
       </c>
       <c r="L14">
-        <v>1.030071824246066</v>
+        <v>1.009362790983158</v>
       </c>
       <c r="M14">
-        <v>1.055129870532359</v>
+        <v>1.039198314912829</v>
       </c>
       <c r="N14">
-        <v>1.034214454834872</v>
+        <v>1.015809151794706</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026198962840418</v>
+        <v>0.9847666948509088</v>
       </c>
       <c r="D15">
-        <v>1.046167372276319</v>
+        <v>1.02776957558978</v>
       </c>
       <c r="E15">
-        <v>1.026542090243713</v>
+        <v>0.9946853969666417</v>
       </c>
       <c r="F15">
-        <v>1.051695041014691</v>
+        <v>1.025092489316655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039717361164545</v>
+        <v>1.044509668423561</v>
       </c>
       <c r="J15">
-        <v>1.032801056555249</v>
+        <v>1.014632203519852</v>
       </c>
       <c r="K15">
-        <v>1.049681585730954</v>
+        <v>1.042117006674512</v>
       </c>
       <c r="L15">
-        <v>1.030128668363376</v>
+        <v>1.009635750385989</v>
       </c>
       <c r="M15">
-        <v>1.055189410282702</v>
+        <v>1.0394868316447</v>
       </c>
       <c r="N15">
-        <v>1.034267752519495</v>
+        <v>1.01607309762879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026729789975906</v>
+        <v>0.9875138508959361</v>
       </c>
       <c r="D16">
-        <v>1.046531598155801</v>
+        <v>1.029566806835692</v>
       </c>
       <c r="E16">
-        <v>1.026989724846449</v>
+        <v>0.9968219451722014</v>
       </c>
       <c r="F16">
-        <v>1.052155160004795</v>
+        <v>1.027295168776199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039832973084612</v>
+        <v>1.045258459214871</v>
       </c>
       <c r="J16">
-        <v>1.033110870477541</v>
+        <v>1.016153370754371</v>
       </c>
       <c r="K16">
-        <v>1.049931992612412</v>
+        <v>1.043386811428543</v>
       </c>
       <c r="L16">
-        <v>1.030459660823506</v>
+        <v>1.01121197119253</v>
       </c>
       <c r="M16">
-        <v>1.055536069455262</v>
+        <v>1.041153205538368</v>
       </c>
       <c r="N16">
-        <v>1.034578006413092</v>
+        <v>1.017596425095263</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027063010454328</v>
+        <v>0.9892174478255394</v>
       </c>
       <c r="D17">
-        <v>1.046760262264402</v>
+        <v>1.030683452684387</v>
       </c>
       <c r="E17">
-        <v>1.027270855014045</v>
+        <v>0.9981493217502332</v>
       </c>
       <c r="F17">
-        <v>1.05244410042879</v>
+        <v>1.028663853008901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039905229136641</v>
+        <v>1.045720718838757</v>
       </c>
       <c r="J17">
-        <v>1.033305241229458</v>
+        <v>1.017096383949283</v>
       </c>
       <c r="K17">
-        <v>1.050089026820187</v>
+        <v>1.044174060030491</v>
       </c>
       <c r="L17">
-        <v>1.030667401524158</v>
+        <v>1.012189878057687</v>
       </c>
       <c r="M17">
-        <v>1.05575361689838</v>
+        <v>1.042187297852462</v>
       </c>
       <c r="N17">
-        <v>1.034772653193772</v>
+        <v>1.018540777477077</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027257460692316</v>
+        <v>0.9902042266403508</v>
       </c>
       <c r="D18">
-        <v>1.046893707745757</v>
+        <v>1.031330986487672</v>
       </c>
       <c r="E18">
-        <v>1.027434955710961</v>
+        <v>0.9989190410254312</v>
       </c>
       <c r="F18">
-        <v>1.052612749089301</v>
+        <v>1.029457595898279</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039947279391645</v>
+        <v>1.045987706840691</v>
       </c>
       <c r="J18">
-        <v>1.033418625756992</v>
+        <v>1.017642483724893</v>
       </c>
       <c r="K18">
-        <v>1.050180607555594</v>
+        <v>1.044629966909476</v>
       </c>
       <c r="L18">
-        <v>1.030788615190153</v>
+        <v>1.012756459352326</v>
       </c>
       <c r="M18">
-        <v>1.055880543145745</v>
+        <v>1.04278651374364</v>
       </c>
       <c r="N18">
-        <v>1.03488619874034</v>
+        <v>1.019087652777007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027323778138892</v>
+        <v>0.9905395380490792</v>
       </c>
       <c r="D19">
-        <v>1.046939220946868</v>
+        <v>1.031551143210571</v>
       </c>
       <c r="E19">
-        <v>1.027490930483213</v>
+        <v>0.9991807388946151</v>
       </c>
       <c r="F19">
-        <v>1.052670273295964</v>
+        <v>1.029727472569934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039961601224049</v>
+        <v>1.046078298718482</v>
       </c>
       <c r="J19">
-        <v>1.033457288837736</v>
+        <v>1.017828028388654</v>
       </c>
       <c r="K19">
-        <v>1.05021183168964</v>
+        <v>1.044784868027235</v>
       </c>
       <c r="L19">
-        <v>1.030829953004196</v>
+        <v>1.012949009402128</v>
       </c>
       <c r="M19">
-        <v>1.055923827515362</v>
+        <v>1.042990167508523</v>
       </c>
       <c r="N19">
-        <v>1.034924916727094</v>
+        <v>1.019273460935473</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027027249898408</v>
+        <v>0.9890353855196723</v>
       </c>
       <c r="D20">
-        <v>1.046735721558709</v>
+        <v>1.030564040455625</v>
       </c>
       <c r="E20">
-        <v>1.027240679751825</v>
+        <v>0.9980073763335959</v>
       </c>
       <c r="F20">
-        <v>1.052413087986489</v>
+        <v>1.02851748279459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039897486616283</v>
+        <v>1.045671396730646</v>
       </c>
       <c r="J20">
-        <v>1.033284385903319</v>
+        <v>1.016995617334509</v>
       </c>
       <c r="K20">
-        <v>1.05007218004207</v>
+        <v>1.0440899364437</v>
       </c>
       <c r="L20">
-        <v>1.030645108555546</v>
+        <v>1.012085354353118</v>
       </c>
       <c r="M20">
-        <v>1.05573027253502</v>
+        <v>1.042076760068498</v>
       </c>
       <c r="N20">
-        <v>1.034751768250677</v>
+        <v>1.018439867762152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026064250171506</v>
+        <v>0.9840629359437743</v>
       </c>
       <c r="D21">
-        <v>1.046074947602511</v>
+        <v>1.027309854376765</v>
       </c>
       <c r="E21">
-        <v>1.026428531161963</v>
+        <v>0.9941388371389888</v>
       </c>
       <c r="F21">
-        <v>1.051578305512587</v>
+        <v>1.024529089708994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039687923374568</v>
+        <v>1.044317206699791</v>
       </c>
       <c r="J21">
-        <v>1.032722398130566</v>
+        <v>1.014242428938724</v>
       </c>
       <c r="K21">
-        <v>1.049617989921024</v>
+        <v>1.041791668900334</v>
       </c>
       <c r="L21">
-        <v>1.03004465852773</v>
+        <v>1.009232108408352</v>
       </c>
       <c r="M21">
-        <v>1.055101416058326</v>
+        <v>1.039060190063522</v>
       </c>
       <c r="N21">
-        <v>1.034188982390826</v>
+        <v>1.015682769523049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025459581194155</v>
+        <v>0.9808706563479744</v>
       </c>
       <c r="D22">
-        <v>1.045660133311773</v>
+        <v>1.025228114141239</v>
       </c>
       <c r="E22">
-        <v>1.025919014998799</v>
+        <v>0.9916635579731359</v>
       </c>
       <c r="F22">
-        <v>1.05105449207652</v>
+        <v>1.021977984558261</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039555307750547</v>
+        <v>1.043441114291641</v>
       </c>
       <c r="J22">
-        <v>1.032369165313628</v>
+        <v>1.012474037311247</v>
       </c>
       <c r="K22">
-        <v>1.049332300271029</v>
+        <v>1.040315833835076</v>
       </c>
       <c r="L22">
-        <v>1.029667520058322</v>
+        <v>1.007401990314739</v>
       </c>
       <c r="M22">
-        <v>1.054706351916227</v>
+        <v>1.037126274513343</v>
       </c>
       <c r="N22">
-        <v>1.033835247942772</v>
+        <v>1.013911866576624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025780050612574</v>
+        <v>0.9825693789322116</v>
       </c>
       <c r="D23">
-        <v>1.045879972837344</v>
+        <v>1.026335147892147</v>
       </c>
       <c r="E23">
-        <v>1.026189012955112</v>
+        <v>0.992979938257274</v>
       </c>
       <c r="F23">
-        <v>1.051332075477311</v>
+        <v>1.023334597595069</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039625690580956</v>
+        <v>1.043907928720388</v>
       </c>
       <c r="J23">
-        <v>1.032556409741335</v>
+        <v>1.013415127322836</v>
       </c>
       <c r="K23">
-        <v>1.049483760877572</v>
+        <v>1.041101186545666</v>
       </c>
       <c r="L23">
-        <v>1.029867411022906</v>
+        <v>1.008375689205023</v>
       </c>
       <c r="M23">
-        <v>1.054915751703785</v>
+        <v>1.03815509690001</v>
       </c>
       <c r="N23">
-        <v>1.034022758279044</v>
+        <v>1.014854293043974</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027043408281474</v>
+        <v>0.9891176729246502</v>
       </c>
       <c r="D24">
-        <v>1.046746810232561</v>
+        <v>1.030618009388236</v>
       </c>
       <c r="E24">
-        <v>1.027254314276526</v>
+        <v>0.9980715292931039</v>
       </c>
       <c r="F24">
-        <v>1.052427100820448</v>
+        <v>1.028583635349244</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039900985423067</v>
+        <v>1.045693691418319</v>
       </c>
       <c r="J24">
-        <v>1.033293809492566</v>
+        <v>1.017041161599257</v>
       </c>
       <c r="K24">
-        <v>1.050079792421428</v>
+        <v>1.044127958400846</v>
       </c>
       <c r="L24">
-        <v>1.030655181658785</v>
+        <v>1.012132595887834</v>
       </c>
       <c r="M24">
-        <v>1.055740820741593</v>
+        <v>1.04212671953298</v>
       </c>
       <c r="N24">
-        <v>1.034761205222502</v>
+        <v>1.018485476704979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028512925354234</v>
+        <v>0.996447555075174</v>
       </c>
       <c r="D25">
-        <v>1.04775544886148</v>
+        <v>1.035440195246281</v>
       </c>
       <c r="E25">
-        <v>1.028495325159521</v>
+        <v>1.003803857037714</v>
       </c>
       <c r="F25">
-        <v>1.053702304401517</v>
+        <v>1.034495842253131</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040216701608164</v>
+        <v>1.04766278631111</v>
       </c>
       <c r="J25">
-        <v>1.034149961678412</v>
+        <v>1.021095067474297</v>
       </c>
       <c r="K25">
-        <v>1.050770873572829</v>
+        <v>1.047512176422849</v>
       </c>
       <c r="L25">
-        <v>1.031570989314725</v>
+        <v>1.016343408627277</v>
       </c>
       <c r="M25">
-        <v>1.05669961464451</v>
+        <v>1.046581256540049</v>
       </c>
       <c r="N25">
-        <v>1.035618573242654</v>
+        <v>1.022545139591352</v>
       </c>
     </row>
   </sheetData>
